--- a/docs/StructureDefinition-WhoCrComposition.xlsx
+++ b/docs/StructureDefinition-WhoCrComposition.xlsx
@@ -524,7 +524,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://www.example.com/fhir/cr/covid19/StructureDefinition/WhoCrPatient)
+    <t xml:space="preserve">Reference(http://openhie.github.io/covid-19/StructureDefinition/WhoCrPatient)
 </t>
   </si>
   <si>

--- a/docs/StructureDefinition-WhoCrComposition.xlsx
+++ b/docs/StructureDefinition-WhoCrComposition.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="392">
   <si>
     <t>Path</t>
   </si>
@@ -524,7 +524,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.github.io/covid-19/StructureDefinition/WhoCrPatient)
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1004,10 +1004,6 @@
   </si>
   <si>
     <t>Composition.event.detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
   </si>
   <si>
     <t>The event(s) being documented</t>
@@ -6042,13 +6038,13 @@
         <v>54</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6117,7 +6113,7 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>130</v>
@@ -6131,7 +6127,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6157,10 +6153,10 @@
         <v>216</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6211,7 +6207,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6223,16 +6219,16 @@
         <v>41</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
@@ -6243,7 +6239,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6355,7 +6351,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6469,7 +6465,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6585,11 +6581,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6611,16 +6607,16 @@
         <v>55</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>41</v>
@@ -6669,7 +6665,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6701,7 +6697,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6727,16 +6723,16 @@
         <v>134</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>41</v>
@@ -6764,11 +6760,11 @@
         <v>153</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
       </c>
@@ -6785,7 +6781,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6817,7 +6813,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6843,10 +6839,10 @@
         <v>191</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
@@ -6899,7 +6895,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6931,7 +6927,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6954,16 +6950,16 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>317</v>
+        <v>160</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7013,7 +7009,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7034,7 +7030,7 @@
         <v>41</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -7045,7 +7041,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7071,13 +7067,13 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7127,7 +7123,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7136,7 +7132,7 @@
         <v>53</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>65</v>
@@ -7145,10 +7141,10 @@
         <v>41</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7159,7 +7155,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7185,16 +7181,16 @@
         <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>41</v>
@@ -7222,11 +7218,11 @@
         <v>125</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>41</v>
       </c>
@@ -7243,7 +7239,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7261,7 +7257,7 @@
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>130</v>
@@ -7275,7 +7271,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7301,16 +7297,16 @@
         <v>134</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>41</v>
@@ -7338,11 +7334,11 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
       </c>
@@ -7359,7 +7355,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7377,7 +7373,7 @@
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>130</v>
@@ -7391,7 +7387,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7414,16 +7410,16 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>317</v>
+        <v>160</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7473,7 +7469,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7482,7 +7478,7 @@
         <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>65</v>
@@ -7491,10 +7487,10 @@
         <v>41</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
@@ -7505,7 +7501,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7531,16 +7527,16 @@
         <v>134</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>41</v>
@@ -7568,11 +7564,11 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>41</v>
       </c>
@@ -7589,7 +7585,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7598,7 +7594,7 @@
         <v>53</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>65</v>
@@ -7607,7 +7603,7 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>130</v>
@@ -7621,7 +7617,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7647,13 +7643,13 @@
         <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7703,7 +7699,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7712,7 +7708,7 @@
         <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>65</v>
@@ -7721,10 +7717,10 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>

--- a/docs/StructureDefinition-WhoCrComposition.xlsx
+++ b/docs/StructureDefinition-WhoCrComposition.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="393">
   <si>
     <t>Path</t>
   </si>
@@ -524,486 +524,490 @@
     <t>Composition.subject</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(http://openhie.github.io/covid-19/StructureDefinition/WhoCrPatient)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what the composition is about</t>
+  </si>
+  <si>
+    <t>Who or what the composition is about. The composition can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of livestock, or a set of patients that share a common exposure).</t>
+  </si>
+  <si>
+    <t>For clinical documents, this is usually the patient.</t>
+  </si>
+  <si>
+    <t>Essential metadata for searching for the composition. Identifies who and/or what the composition/document is about.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
+  </si>
+  <si>
+    <t>.recordTarget</t>
+  </si>
+  <si>
+    <t>DocumentReference.subject</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Composition.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Context of the Composition</t>
+  </si>
+  <si>
+    <t>Describes the clinical encounter or type of care this documentation is associated with.</t>
+  </si>
+  <si>
+    <t>Provides context for the composition and supports searching.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>unique(highest(./outboundRelationship[typeCode="SUBJ" and isNormalActRelationship()], priorityNumber)/target[moodCode="EVN" and classCode=("ENC", "PCPR") and isNormalAct])</t>
+  </si>
+  <si>
+    <t>.componentOf.encompassingEncounter</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.encounter</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Composition.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Composition editing time</t>
+  </si>
+  <si>
+    <t>The composition editing time, when the composition was last logically changed by the author.</t>
+  </si>
+  <si>
+    <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
+  </si>
+  <si>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>.effectiveTime[type="TS"]</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.attachment.date, DocumentReference.created</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>Composition.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Device|Patient|RelatedPerson|Organization)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what authored the composition</t>
+  </si>
+  <si>
+    <t>Identifies who is responsible for the information in the composition, not necessarily who typed it in.</t>
+  </si>
+  <si>
+    <t>Identifies who is responsible for the content.</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
+  </si>
+  <si>
+    <t>.author.assignedAuthor</t>
+  </si>
+  <si>
+    <t>DocumentReference.agent</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>Composition.title</t>
+  </si>
+  <si>
+    <t>Human Readable name/title</t>
+  </si>
+  <si>
+    <t>Official human-readable label for the composition.</t>
+  </si>
+  <si>
+    <t>For many compositions, the title is the same as the text or a display name of Composition.type (e.g. a "consultation" or "progress note"). Note that CDA does not make title mandatory, but there are no known cases where it is useful for title to be omitted, so it is mandatory here. Feedback on this requirement is welcome during the trial use period.</t>
+  </si>
+  <si>
+    <t>./title</t>
+  </si>
+  <si>
+    <t>.title</t>
+  </si>
+  <si>
+    <t>DocumentReference.description, DocumentReference.content.attachment.title</t>
+  </si>
+  <si>
+    <t>Composition.confidentiality</t>
+  </si>
+  <si>
+    <t>As defined by affinity domain</t>
+  </si>
+  <si>
+    <t>The code specifying the level of confidentiality of the Composition.</t>
+  </si>
+  <si>
+    <t>The exact use of this element, and enforcement and issues related to highly sensitive documents are out of scope for the base specification, and delegated to implementation profiles (see security section).  This element is labeled as a modifier because highly confidential documents must not be treated as if they are not.</t>
+  </si>
+  <si>
+    <t>Codes specifying the level of confidentiality of the composition.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ConfidentialityClassification|2014-03-26</t>
+  </si>
+  <si>
+    <t>.confidentialityCode</t>
+  </si>
+  <si>
+    <t>DocumentReference.securityLabel</t>
+  </si>
+  <si>
+    <t>Composition.attester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Attests to accuracy of composition</t>
+  </si>
+  <si>
+    <t>A participant who has attested to the accuracy of the composition/document.</t>
+  </si>
+  <si>
+    <t>Only list each attester once.</t>
+  </si>
+  <si>
+    <t>Identifies responsibility for the accuracy of the composition content.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
+  </si>
+  <si>
+    <t>.authenticator/.legalAuthenticator</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator</t>
+  </si>
+  <si>
+    <t>Composition.attester.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Composition.attester.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Composition.attester.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.attester.mode</t>
+  </si>
+  <si>
+    <t>personal | professional | legal | official</t>
+  </si>
+  <si>
+    <t>The type of attestation the authenticator offers.</t>
+  </si>
+  <si>
+    <t>Indicates the level of authority of the attestation.</t>
+  </si>
+  <si>
+    <t>The way in which a person authenticated a composition.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/composition-attestation-mode|4.0.1</t>
+  </si>
+  <si>
+    <t>unique(./modeCode)</t>
+  </si>
+  <si>
+    <t>implied by .authenticator/.legalAuthenticator</t>
+  </si>
+  <si>
+    <t>Composition.attester.time</t>
+  </si>
+  <si>
+    <t>When the composition was attested</t>
+  </si>
+  <si>
+    <t>When the composition was attested by the party.</t>
+  </si>
+  <si>
+    <t>Identifies when the information in the composition was deemed accurate.  (Things may have changed since then.).</t>
+  </si>
+  <si>
+    <t>./time[type="TS" and isNormalDatatype()]</t>
+  </si>
+  <si>
+    <t>.authenticator.time</t>
+  </si>
+  <si>
+    <t>Composition.attester.party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole|Organization)
+</t>
+  </si>
+  <si>
+    <t>Who attested the composition</t>
+  </si>
+  <si>
+    <t>Who attested the composition in the specified way.</t>
+  </si>
+  <si>
+    <t>Identifies who has taken on the responsibility for accuracy of the composition content.</t>
+  </si>
+  <si>
+    <t>./role[classCode="ASSIGNED" and isNormalRole]/player[determinerCode="INST" and classCode=("DEV", "PSN") and isNormalEntity()] or ./role[classCode="ASSIGNED" and isNormalRole and not(player)]/scoper[determinerCode="INST" and classCode="ORG" and isNormalEntity()]</t>
+  </si>
+  <si>
+    <t>.authenticator.assignedEnttty</t>
+  </si>
+  <si>
+    <t>FiveWs.witness</t>
+  </si>
+  <si>
+    <t>Composition.custodian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization which maintains the composition</t>
+  </si>
+  <si>
+    <t>Identifies the organization or group who is responsible for ongoing maintenance of and access to the composition/document information.</t>
+  </si>
+  <si>
+    <t>This is useful when documents are derived from a composition - provides guidance for how to get the latest version of the document. This is optional because this is sometimes not known by the authoring system, and can be inferred by context. However, it is important that this information be known when working with a derived document, so providing a custodian is encouraged.</t>
+  </si>
+  <si>
+    <t>Identifies where to go to find the current version, where to report issues, etc.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="RCV"].role[classCode="CUST"].scoper[classCode="ORG" and determinerCode="INST"]</t>
+  </si>
+  <si>
+    <t>.custodian.assignedCustodian</t>
+  </si>
+  <si>
+    <t>DocumentReference.custodian</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo</t>
+  </si>
+  <si>
+    <t>Relationships to other compositions/documents</t>
+  </si>
+  <si>
+    <t>Relationships that this composition has with other compositions or documents that already exist.</t>
+  </si>
+  <si>
+    <t>A document is a version specific composition.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship</t>
+  </si>
+  <si>
+    <t>.relatedDocument</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo.id</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo.extension</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo.code</t>
+  </si>
+  <si>
+    <t>replaces | transforms | signs | appends</t>
+  </si>
+  <si>
+    <t>The type of relationship that this composition has with anther composition or document.</t>
+  </si>
+  <si>
+    <t>If this document appends another document, then the document cannot be fully understood without also accessing the referenced document.</t>
+  </si>
+  <si>
+    <t>The type of relationship between documents.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-relationship-type|4.0.1</t>
+  </si>
+  <si>
+    <t>.outboundRelationship.typeCode</t>
+  </si>
+  <si>
+    <t>.relatedDocument.typeCode</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.code</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo.target[x]</t>
+  </si>
+  <si>
+    <t>Identifier
+Reference(Composition)</t>
+  </si>
+  <si>
+    <t>Target of the relationship</t>
+  </si>
+  <si>
+    <t>The target composition/document of this relationship.</t>
+  </si>
+  <si>
+    <t>.target[classCode="DOC", moodCode="EVN"].id</t>
+  </si>
+  <si>
+    <t>.relatedDocument.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.target</t>
+  </si>
+  <si>
+    <t>Composition.event</t>
+  </si>
+  <si>
+    <t>The clinical service(s) being documented</t>
+  </si>
+  <si>
+    <t>The clinical service, such as a colonoscopy or an appendectomy, being documented.</t>
+  </si>
+  <si>
+    <t>The event needs to be consistent with the type element, though can provide further information if desired.</t>
+  </si>
+  <si>
+    <t>Provides context for the composition and creates a linkage between a resource describing an event and the composition created describing the event.</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode="SUBJ"].target[classCode&lt;'ACT']</t>
+  </si>
+  <si>
+    <t>.documentationOf.serviceEvent</t>
+  </si>
+  <si>
+    <t>DocumentReference.event</t>
+  </si>
+  <si>
+    <t>Composition.event.id</t>
+  </si>
+  <si>
+    <t>Composition.event.extension</t>
+  </si>
+  <si>
+    <t>Composition.event.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.event.code</t>
+  </si>
+  <si>
+    <t>Code(s) that apply to the event being documented</t>
+  </si>
+  <si>
+    <t>This list of codes represents the main clinical acts, such as a colonoscopy or an appendectomy, being documented. In some cases, the event is inherent in the typeCode, such as a "History and Physical Report" in which the procedure being documented is necessarily a "History and Physical" act.</t>
+  </si>
+  <si>
+    <t>An event can further specialize the act inherent in the typeCode, such as where it is simply "Procedure Report" and the procedure was a "colonoscopy". If one or more eventCodes are included, they SHALL NOT conflict with the values inherent in the classCode, practiceSettingCode or typeCode, as such a conflict would create an ambiguous situation. This short list of codes is provided to be used as key words for certain types of queries.</t>
+  </si>
+  <si>
+    <t>This list of codes represents the main clinical acts being documented.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActCode</t>
+  </si>
+  <si>
+    <t>DocumentReference.event.code</t>
+  </si>
+  <si>
+    <t>Composition.event.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>The period covered by the documentation</t>
+  </si>
+  <si>
+    <t>The period of time covered by the documentation. There is no assertion that the documentation is a complete representation for this period, only that it documents events during this time.</t>
+  </si>
+  <si>
+    <t>DocumentReference.event.period</t>
+  </si>
+  <si>
+    <t>Composition.event.detail</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(Resource)
 </t>
-  </si>
-  <si>
-    <t>Who and/or what the composition is about</t>
-  </si>
-  <si>
-    <t>Who or what the composition is about. The composition can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of livestock, or a set of patients that share a common exposure).</t>
-  </si>
-  <si>
-    <t>For clinical documents, this is usually the patient.</t>
-  </si>
-  <si>
-    <t>Essential metadata for searching for the composition. Identifies who and/or what the composition/document is about.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
-  </si>
-  <si>
-    <t>.recordTarget</t>
-  </si>
-  <si>
-    <t>DocumentReference.subject</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Composition.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Context of the Composition</t>
-  </si>
-  <si>
-    <t>Describes the clinical encounter or type of care this documentation is associated with.</t>
-  </si>
-  <si>
-    <t>Provides context for the composition and supports searching.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>unique(highest(./outboundRelationship[typeCode="SUBJ" and isNormalActRelationship()], priorityNumber)/target[moodCode="EVN" and classCode=("ENC", "PCPR") and isNormalAct])</t>
-  </si>
-  <si>
-    <t>.componentOf.encompassingEncounter</t>
-  </si>
-  <si>
-    <t>DocumentReference.context.encounter</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Composition.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Composition editing time</t>
-  </si>
-  <si>
-    <t>The composition editing time, when the composition was last logically changed by the author.</t>
-  </si>
-  <si>
-    <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
-  </si>
-  <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>.effectiveTime[type="TS"]</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>DocumentReference.content.attachment.date, DocumentReference.created</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>Composition.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Device|Patient|RelatedPerson|Organization)
-</t>
-  </si>
-  <si>
-    <t>Who and/or what authored the composition</t>
-  </si>
-  <si>
-    <t>Identifies who is responsible for the information in the composition, not necessarily who typed it in.</t>
-  </si>
-  <si>
-    <t>Identifies who is responsible for the content.</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
-  </si>
-  <si>
-    <t>.author.assignedAuthor</t>
-  </si>
-  <si>
-    <t>DocumentReference.agent</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>Composition.title</t>
-  </si>
-  <si>
-    <t>Human Readable name/title</t>
-  </si>
-  <si>
-    <t>Official human-readable label for the composition.</t>
-  </si>
-  <si>
-    <t>For many compositions, the title is the same as the text or a display name of Composition.type (e.g. a "consultation" or "progress note"). Note that CDA does not make title mandatory, but there are no known cases where it is useful for title to be omitted, so it is mandatory here. Feedback on this requirement is welcome during the trial use period.</t>
-  </si>
-  <si>
-    <t>./title</t>
-  </si>
-  <si>
-    <t>.title</t>
-  </si>
-  <si>
-    <t>DocumentReference.description, DocumentReference.content.attachment.title</t>
-  </si>
-  <si>
-    <t>Composition.confidentiality</t>
-  </si>
-  <si>
-    <t>As defined by affinity domain</t>
-  </si>
-  <si>
-    <t>The code specifying the level of confidentiality of the Composition.</t>
-  </si>
-  <si>
-    <t>The exact use of this element, and enforcement and issues related to highly sensitive documents are out of scope for the base specification, and delegated to implementation profiles (see security section).  This element is labeled as a modifier because highly confidential documents must not be treated as if they are not.</t>
-  </si>
-  <si>
-    <t>Codes specifying the level of confidentiality of the composition.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ConfidentialityClassification|2014-03-26</t>
-  </si>
-  <si>
-    <t>.confidentialityCode</t>
-  </si>
-  <si>
-    <t>DocumentReference.securityLabel</t>
-  </si>
-  <si>
-    <t>Composition.attester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Attests to accuracy of composition</t>
-  </si>
-  <si>
-    <t>A participant who has attested to the accuracy of the composition/document.</t>
-  </si>
-  <si>
-    <t>Only list each attester once.</t>
-  </si>
-  <si>
-    <t>Identifies responsibility for the accuracy of the composition content.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
-  </si>
-  <si>
-    <t>.authenticator/.legalAuthenticator</t>
-  </si>
-  <si>
-    <t>DocumentReference.authenticator</t>
-  </si>
-  <si>
-    <t>Composition.attester.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Composition.attester.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Composition.attester.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.attester.mode</t>
-  </si>
-  <si>
-    <t>personal | professional | legal | official</t>
-  </si>
-  <si>
-    <t>The type of attestation the authenticator offers.</t>
-  </si>
-  <si>
-    <t>Indicates the level of authority of the attestation.</t>
-  </si>
-  <si>
-    <t>The way in which a person authenticated a composition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-attestation-mode|4.0.1</t>
-  </si>
-  <si>
-    <t>unique(./modeCode)</t>
-  </si>
-  <si>
-    <t>implied by .authenticator/.legalAuthenticator</t>
-  </si>
-  <si>
-    <t>Composition.attester.time</t>
-  </si>
-  <si>
-    <t>When the composition was attested</t>
-  </si>
-  <si>
-    <t>When the composition was attested by the party.</t>
-  </si>
-  <si>
-    <t>Identifies when the information in the composition was deemed accurate.  (Things may have changed since then.).</t>
-  </si>
-  <si>
-    <t>./time[type="TS" and isNormalDatatype()]</t>
-  </si>
-  <si>
-    <t>.authenticator.time</t>
-  </si>
-  <si>
-    <t>Composition.attester.party</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole|Organization)
-</t>
-  </si>
-  <si>
-    <t>Who attested the composition</t>
-  </si>
-  <si>
-    <t>Who attested the composition in the specified way.</t>
-  </si>
-  <si>
-    <t>Identifies who has taken on the responsibility for accuracy of the composition content.</t>
-  </si>
-  <si>
-    <t>./role[classCode="ASSIGNED" and isNormalRole]/player[determinerCode="INST" and classCode=("DEV", "PSN") and isNormalEntity()] or ./role[classCode="ASSIGNED" and isNormalRole and not(player)]/scoper[determinerCode="INST" and classCode="ORG" and isNormalEntity()]</t>
-  </si>
-  <si>
-    <t>.authenticator.assignedEnttty</t>
-  </si>
-  <si>
-    <t>FiveWs.witness</t>
-  </si>
-  <si>
-    <t>Composition.custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization which maintains the composition</t>
-  </si>
-  <si>
-    <t>Identifies the organization or group who is responsible for ongoing maintenance of and access to the composition/document information.</t>
-  </si>
-  <si>
-    <t>This is useful when documents are derived from a composition - provides guidance for how to get the latest version of the document. This is optional because this is sometimes not known by the authoring system, and can be inferred by context. However, it is important that this information be known when working with a derived document, so providing a custodian is encouraged.</t>
-  </si>
-  <si>
-    <t>Identifies where to go to find the current version, where to report issues, etc.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="RCV"].role[classCode="CUST"].scoper[classCode="ORG" and determinerCode="INST"]</t>
-  </si>
-  <si>
-    <t>.custodian.assignedCustodian</t>
-  </si>
-  <si>
-    <t>DocumentReference.custodian</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo</t>
-  </si>
-  <si>
-    <t>Relationships to other compositions/documents</t>
-  </si>
-  <si>
-    <t>Relationships that this composition has with other compositions or documents that already exist.</t>
-  </si>
-  <si>
-    <t>A document is a version specific composition.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship</t>
-  </si>
-  <si>
-    <t>.relatedDocument</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo.id</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo.extension</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo.code</t>
-  </si>
-  <si>
-    <t>replaces | transforms | signs | appends</t>
-  </si>
-  <si>
-    <t>The type of relationship that this composition has with anther composition or document.</t>
-  </si>
-  <si>
-    <t>If this document appends another document, then the document cannot be fully understood without also accessing the referenced document.</t>
-  </si>
-  <si>
-    <t>The type of relationship between documents.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-relationship-type|4.0.1</t>
-  </si>
-  <si>
-    <t>.outboundRelationship.typeCode</t>
-  </si>
-  <si>
-    <t>.relatedDocument.typeCode</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.code</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo.target[x]</t>
-  </si>
-  <si>
-    <t>Identifier
-Reference(Composition)</t>
-  </si>
-  <si>
-    <t>Target of the relationship</t>
-  </si>
-  <si>
-    <t>The target composition/document of this relationship.</t>
-  </si>
-  <si>
-    <t>.target[classCode="DOC", moodCode="EVN"].id</t>
-  </si>
-  <si>
-    <t>.relatedDocument.id</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.target</t>
-  </si>
-  <si>
-    <t>Composition.event</t>
-  </si>
-  <si>
-    <t>The clinical service(s) being documented</t>
-  </si>
-  <si>
-    <t>The clinical service, such as a colonoscopy or an appendectomy, being documented.</t>
-  </si>
-  <si>
-    <t>The event needs to be consistent with the type element, though can provide further information if desired.</t>
-  </si>
-  <si>
-    <t>Provides context for the composition and creates a linkage between a resource describing an event and the composition created describing the event.</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode="SUBJ"].target[classCode&lt;'ACT']</t>
-  </si>
-  <si>
-    <t>.documentationOf.serviceEvent</t>
-  </si>
-  <si>
-    <t>DocumentReference.event</t>
-  </si>
-  <si>
-    <t>Composition.event.id</t>
-  </si>
-  <si>
-    <t>Composition.event.extension</t>
-  </si>
-  <si>
-    <t>Composition.event.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.event.code</t>
-  </si>
-  <si>
-    <t>Code(s) that apply to the event being documented</t>
-  </si>
-  <si>
-    <t>This list of codes represents the main clinical acts, such as a colonoscopy or an appendectomy, being documented. In some cases, the event is inherent in the typeCode, such as a "History and Physical Report" in which the procedure being documented is necessarily a "History and Physical" act.</t>
-  </si>
-  <si>
-    <t>An event can further specialize the act inherent in the typeCode, such as where it is simply "Procedure Report" and the procedure was a "colonoscopy". If one or more eventCodes are included, they SHALL NOT conflict with the values inherent in the classCode, practiceSettingCode or typeCode, as such a conflict would create an ambiguous situation. This short list of codes is provided to be used as key words for certain types of queries.</t>
-  </si>
-  <si>
-    <t>This list of codes represents the main clinical acts being documented.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActCode</t>
-  </si>
-  <si>
-    <t>DocumentReference.event.code</t>
-  </si>
-  <si>
-    <t>Composition.event.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>The period covered by the documentation</t>
-  </si>
-  <si>
-    <t>The period of time covered by the documentation. There is no assertion that the documentation is a complete representation for this period, only that it documents events during this time.</t>
-  </si>
-  <si>
-    <t>DocumentReference.event.period</t>
-  </si>
-  <si>
-    <t>Composition.event.detail</t>
   </si>
   <si>
     <t>The event(s) being documented</t>
@@ -6038,13 +6042,13 @@
         <v>54</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>160</v>
+        <v>317</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6113,7 +6117,7 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>130</v>
@@ -6127,7 +6131,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6153,10 +6157,10 @@
         <v>216</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6207,7 +6211,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6219,16 +6223,16 @@
         <v>41</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
@@ -6239,7 +6243,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6351,7 +6355,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6465,7 +6469,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6581,11 +6585,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6607,16 +6611,16 @@
         <v>55</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>41</v>
@@ -6665,7 +6669,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6697,7 +6701,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6723,16 +6727,16 @@
         <v>134</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>41</v>
@@ -6760,10 +6764,10 @@
         <v>153</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
@@ -6781,7 +6785,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6813,7 +6817,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6839,10 +6843,10 @@
         <v>191</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
@@ -6895,7 +6899,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6927,7 +6931,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6950,16 +6954,16 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>160</v>
+        <v>317</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7009,7 +7013,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7030,7 +7034,7 @@
         <v>41</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -7041,7 +7045,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7067,13 +7071,13 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7123,7 +7127,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7132,7 +7136,7 @@
         <v>53</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>65</v>
@@ -7141,10 +7145,10 @@
         <v>41</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7155,7 +7159,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7181,16 +7185,16 @@
         <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>41</v>
@@ -7218,10 +7222,10 @@
         <v>125</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>41</v>
@@ -7239,7 +7243,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7257,7 +7261,7 @@
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>130</v>
@@ -7271,7 +7275,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7297,16 +7301,16 @@
         <v>134</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>41</v>
@@ -7334,10 +7338,10 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
@@ -7355,7 +7359,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7373,7 +7377,7 @@
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>130</v>
@@ -7387,7 +7391,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7410,16 +7414,16 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>160</v>
+        <v>317</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7469,7 +7473,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7478,7 +7482,7 @@
         <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>65</v>
@@ -7487,10 +7491,10 @@
         <v>41</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
@@ -7501,7 +7505,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7527,16 +7531,16 @@
         <v>134</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>41</v>
@@ -7564,10 +7568,10 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>41</v>
@@ -7585,7 +7589,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7594,7 +7598,7 @@
         <v>53</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>65</v>
@@ -7603,7 +7607,7 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>130</v>
@@ -7617,7 +7621,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7643,13 +7647,13 @@
         <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7699,7 +7703,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7708,7 +7712,7 @@
         <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>65</v>
@@ -7717,10 +7721,10 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
